--- a/Junho/06_Junho_-_Itamar.xlsx
+++ b/Junho/06_Junho_-_Itamar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Maio" sheetId="1" state="visible" r:id="rId2"/>
@@ -1499,7 +1499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
   <si>
     <t xml:space="preserve">CAPITAL</t>
   </si>
@@ -1603,6 +1603,15 @@
     <t xml:space="preserve">ELET6</t>
   </si>
   <si>
+    <t xml:space="preserve">BBAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRSR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COGN3</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSNA3</t>
   </si>
   <si>
@@ -1625,9 +1634,6 @@
   </si>
   <si>
     <t xml:space="preserve">SANB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBAS3</t>
   </si>
 </sst>
 </file>
@@ -2086,9 +2092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726840</xdr:colOff>
+      <xdr:colOff>726480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2102,7 +2108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453680" cy="1291320"/>
+          <a:ext cx="1453320" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2128,9 +2134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726840</xdr:colOff>
+      <xdr:colOff>726480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2144,7 +2150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453680" cy="1291320"/>
+          <a:ext cx="1453320" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,9 +2176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>727200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2186,7 +2192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453320" cy="1291320"/>
+          <a:ext cx="1454040" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2212,9 +2218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>726120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2228,7 +2234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453320" cy="1291320"/>
+          <a:ext cx="1452960" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2254,9 +2260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>726120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2270,7 +2276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453320" cy="1291320"/>
+          <a:ext cx="1452960" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2296,9 +2302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>726120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2312,7 +2318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453320" cy="1291320"/>
+          <a:ext cx="1452960" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2338,9 +2344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>726120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2354,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453320" cy="1291320"/>
+          <a:ext cx="1452960" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2380,9 +2386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
+      <xdr:colOff>726120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2396,7 +2402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1453320" cy="1291320"/>
+          <a:ext cx="1452960" cy="1290960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4299,7 +4305,7 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -4438,7 +4444,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.298504231572601</v>
+        <v>0.298504231572599</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -4587,18 +4593,18 @@
       </c>
       <c r="I8" s="22" t="n">
         <f aca="false">H8*F8*100</f>
-        <v>8931.84973349376</v>
+        <v>8931.84973349374</v>
       </c>
       <c r="J8" s="23" t="n">
         <f aca="false">I8/$E$4</f>
-        <v>0.0800000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K8" s="28" t="n">
         <v>5.2</v>
       </c>
       <c r="L8" s="24" t="n">
         <f aca="false">IFERROR((K8/F8-1)*J8,0)</f>
-        <v>0.0224630541871922</v>
+        <v>0.0224630541871921</v>
       </c>
       <c r="M8" s="25" t="n">
         <f aca="false">IFERROR(L8/J8,0)</f>
@@ -4634,19 +4640,19 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>7.20310462378529</v>
+        <v>7.20310462378528</v>
       </c>
       <c r="H9" s="21" t="n">
         <f aca="false">G9</f>
-        <v>7.20310462378529</v>
+        <v>7.20310462378528</v>
       </c>
       <c r="I9" s="22" t="n">
         <f aca="false">H9*F9*100</f>
-        <v>8931.84973349376</v>
+        <v>8931.84973349374</v>
       </c>
       <c r="J9" s="23" t="n">
         <f aca="false">I9/$E$4</f>
-        <v>0.0800000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K9" s="28" t="n">
         <v>15.31</v>
@@ -4689,11 +4695,11 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>40.3243780293172</v>
+        <v>40.3243780293171</v>
       </c>
       <c r="H10" s="21" t="n">
         <f aca="false">G10</f>
-        <v>40.3243780293172</v>
+        <v>40.3243780293171</v>
       </c>
       <c r="I10" s="22" t="n">
         <f aca="false">H10*F10*100</f>
@@ -4763,7 +4769,7 @@
       </c>
       <c r="L11" s="24" t="n">
         <f aca="false">IFERROR((K11/F11-1)*J11,0)</f>
-        <v>0.0582426778242677</v>
+        <v>0.0582426778242678</v>
       </c>
       <c r="M11" s="25" t="n">
         <f aca="false">IFERROR(L11/J11,0)</f>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>8.83758219013235</v>
+        <v>8.83758219013233</v>
       </c>
       <c r="H12" s="21" t="n">
         <f aca="false">G12</f>
-        <v>8.83758219013235</v>
+        <v>8.83758219013233</v>
       </c>
       <c r="I12" s="22" t="n">
         <f aca="false">H12*F12*100</f>
@@ -4854,11 +4860,11 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.56848487125546</v>
+        <v>5.56848487125545</v>
       </c>
       <c r="H13" s="21" t="n">
         <f aca="false">G13</f>
-        <v>5.56848487125546</v>
+        <v>5.56848487125545</v>
       </c>
       <c r="I13" s="22" t="n">
         <f aca="false">H13*F13*100</f>
@@ -4873,7 +4879,7 @@
       </c>
       <c r="L13" s="24" t="n">
         <f aca="false">IFERROR((K13/F13-1)*J13,0)</f>
-        <v>0.0158104738154614</v>
+        <v>0.0158104738154613</v>
       </c>
       <c r="M13" s="25" t="n">
         <f aca="false">IFERROR(L13/J13,0)</f>
@@ -4909,11 +4915,11 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>5.45511995123805</v>
+        <v>5.45511995123804</v>
       </c>
       <c r="H14" s="21" t="n">
         <f aca="false">G14</f>
-        <v>5.45511995123805</v>
+        <v>5.45511995123804</v>
       </c>
       <c r="I14" s="22" t="n">
         <f aca="false">H14*F14*100</f>
@@ -5098,7 +5104,7 @@
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.163032760574382</v>
+        <v>0.163032760574383</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -6180,11 +6186,11 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N22" activeCellId="0" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.71"/>
@@ -6203,7 +6209,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -6243,7 +6249,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(L8:L17)</f>
-        <v>0.0579529670961253</v>
+        <v>0.143992347955135</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -6266,7 +6272,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -6309,17 +6315,17 @@
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
-        <v>83516</v>
+        <v>129850.42315726</v>
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>134690.42315726</v>
+        <v>148547.890470642</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.346904231572601</v>
+        <v>0.485478904706416</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -6342,7 +6348,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -6398,7 +6404,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
@@ -6450,39 +6456,39 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="19" t="n">
-        <v>16.71</v>
+        <v>7.12</v>
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.77082125417475</v>
+        <v>54.7122569482837</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>6</v>
+        <v>54.7122569482837</v>
       </c>
       <c r="I8" s="22" t="n">
         <f aca="false">H8*F8*100</f>
-        <v>10026</v>
+        <v>38955.126947178</v>
       </c>
       <c r="J8" s="23" t="n">
         <f aca="false">I8/$E$4</f>
-        <v>0.120048852914412</v>
+        <v>0.3</v>
       </c>
       <c r="K8" s="28" t="n">
-        <v>15.86</v>
+        <v>9.1</v>
       </c>
       <c r="L8" s="24" t="n">
         <f aca="false">IFERROR((K8/F8-1)*J8,0)</f>
-        <v>-0.00610661430145123</v>
+        <v>0.0834269662921348</v>
       </c>
       <c r="M8" s="25" t="n">
         <f aca="false">IFERROR(L8/J8,0)</f>
-        <v>-0.0508677438659486</v>
+        <v>0.278089887640449</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -6504,39 +6510,39 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F9" s="19" t="n">
-        <v>35.25</v>
+        <v>32.15</v>
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.68369994772369</v>
+        <v>3.23111472864099</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>3</v>
+        <v>3.23111472864099</v>
       </c>
       <c r="I9" s="22" t="n">
         <f aca="false">H9*F9*100</f>
-        <v>10575</v>
+        <v>10388.0338525808</v>
       </c>
       <c r="J9" s="23" t="n">
         <f aca="false">I9/$E$4</f>
-        <v>0.126622443603621</v>
+        <v>0.08</v>
       </c>
       <c r="K9" s="28" t="n">
-        <v>42.95</v>
+        <v>33.5</v>
       </c>
       <c r="L9" s="24" t="n">
         <f aca="false">IFERROR((K9/F9-1)*J9,0)</f>
-        <v>0.0276593706595144</v>
+        <v>0.0033592534992224</v>
       </c>
       <c r="M9" s="25" t="n">
         <f aca="false">IFERROR(L9/J9,0)</f>
-        <v>0.218439716312057</v>
+        <v>0.04199066874028</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -6558,39 +6564,39 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
       </c>
       <c r="F10" s="19" t="n">
-        <v>9.89</v>
+        <v>9.59</v>
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>13.129466446639</v>
+        <v>13.5401901102461</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>10</v>
+        <v>13.5401901102461</v>
       </c>
       <c r="I10" s="22" t="n">
         <f aca="false">H10*F10*100</f>
-        <v>9890</v>
+        <v>12985.042315726</v>
       </c>
       <c r="J10" s="23" t="n">
         <f aca="false">I10/$E$4</f>
-        <v>0.118420422434025</v>
+        <v>0.1</v>
       </c>
       <c r="K10" s="28" t="n">
         <v>10.19</v>
       </c>
       <c r="L10" s="24" t="n">
         <f aca="false">IFERROR((K10/F10-1)*J10,0)</f>
-        <v>0.00359212605967716</v>
+        <v>0.00625651720542231</v>
       </c>
       <c r="M10" s="25" t="n">
         <f aca="false">IFERROR(L10/J10,0)</f>
-        <v>0.0303336703741151</v>
+        <v>0.0625651720542231</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -6612,39 +6618,39 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E11" s="18" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F11" s="19" t="n">
-        <v>43.47</v>
+        <v>4.44</v>
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.98712728680147</v>
+        <v>35.0947089614216</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>2</v>
+        <v>35.0947089614216</v>
       </c>
       <c r="I11" s="22" t="n">
         <f aca="false">H11*F11*100</f>
-        <v>8694</v>
+        <v>15582.0507788712</v>
       </c>
       <c r="J11" s="23" t="n">
         <f aca="false">I11/$E$4</f>
-        <v>0.104099813209445</v>
+        <v>0.12</v>
       </c>
       <c r="K11" s="28" t="n">
-        <v>48.33</v>
+        <v>4.65</v>
       </c>
       <c r="L11" s="24" t="n">
         <f aca="false">IFERROR((K11/F11-1)*J11,0)</f>
-        <v>0.0116384884333541</v>
+        <v>0.00567567567567568</v>
       </c>
       <c r="M11" s="25" t="n">
         <f aca="false">IFERROR(L11/J11,0)</f>
-        <v>0.111801242236025</v>
+        <v>0.0472972972972974</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6666,39 +6672,39 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F12" s="19" t="n">
-        <v>29</v>
+        <v>13.55</v>
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.47760079852621</v>
+        <v>7.6664456476611</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>3</v>
+        <v>7.6664456476611</v>
       </c>
       <c r="I12" s="22" t="n">
         <f aca="false">H12*F12*100</f>
-        <v>8700</v>
+        <v>10388.0338525808</v>
       </c>
       <c r="J12" s="23" t="n">
         <f aca="false">I12/$E$4</f>
-        <v>0.104171655730638</v>
+        <v>0.08</v>
       </c>
       <c r="K12" s="28" t="n">
-        <v>34.66</v>
+        <v>14.26</v>
       </c>
       <c r="L12" s="24" t="n">
         <f aca="false">IFERROR((K12/F12-1)*J12,0)</f>
-        <v>0.0203314334977729</v>
+        <v>0.00419188191881919</v>
       </c>
       <c r="M12" s="25" t="n">
         <f aca="false">IFERROR(L12/J12,0)</f>
-        <v>0.195172413793103</v>
+        <v>0.0523985239852398</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6720,39 +6726,39 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="18" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F13" s="19" t="n">
-        <v>18.9</v>
+        <v>6.61</v>
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.87039275964339</v>
+        <v>23.5734504975358</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>5</v>
+        <v>23.5734504975358</v>
       </c>
       <c r="I13" s="22" t="n">
         <f aca="false">H13*F13*100</f>
-        <v>9450</v>
+        <v>15582.0507788712</v>
       </c>
       <c r="J13" s="23" t="n">
         <f aca="false">I13/$E$4</f>
-        <v>0.113151970879831</v>
+        <v>0.12</v>
       </c>
       <c r="K13" s="28" t="n">
-        <v>19.85</v>
+        <v>7.2</v>
       </c>
       <c r="L13" s="24" t="n">
         <f aca="false">IFERROR((K13/F13-1)*J13,0)</f>
-        <v>0.00568753292782224</v>
+        <v>0.0107110438729198</v>
       </c>
       <c r="M13" s="25" t="n">
         <f aca="false">IFERROR(L13/J13,0)</f>
-        <v>0.0502645502645505</v>
+        <v>0.0892586989409985</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6774,39 +6780,39 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E14" s="18" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>10.76</v>
+        <v>23.18</v>
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>12.0678831930539</v>
+        <v>11.2036603241812</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>7</v>
+        <v>11.2036603241812</v>
       </c>
       <c r="I14" s="22" t="n">
         <f aca="false">H14*F14*100</f>
-        <v>7532</v>
+        <v>25970.084631452</v>
       </c>
       <c r="J14" s="23" t="n">
         <f aca="false">I14/$E$4</f>
-        <v>0.0901863116049619</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="28" t="n">
-        <v>11.85</v>
+        <v>26.7</v>
       </c>
       <c r="L14" s="24" t="n">
         <f aca="false">IFERROR((K14/F14-1)*J14,0)</f>
-        <v>0.00913597394511231</v>
+        <v>0.0303710094909404</v>
       </c>
       <c r="M14" s="25" t="n">
         <f aca="false">IFERROR(L14/J14,0)</f>
-        <v>0.101301115241636</v>
+        <v>0.151855047454702</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6821,46 +6827,27 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="19" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="G15" s="20" t="n">
-        <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>10.0737333713933</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="22" t="n">
-        <f aca="false">H15*F15*100</f>
-        <v>6445</v>
-      </c>
-      <c r="J15" s="23" t="n">
-        <f aca="false">I15/$E$4</f>
-        <v>0.0771708415153982</v>
-      </c>
-      <c r="K15" s="28" t="n">
-        <v>12.46</v>
-      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="24" t="n">
         <f aca="false">IFERROR((K15/F15-1)*J15,0)</f>
-        <v>-0.00257435700943531</v>
+        <v>0</v>
       </c>
       <c r="M15" s="25" t="n">
         <f aca="false">IFERROR(L15/J15,0)</f>
-        <v>-0.0333591931730023</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -6875,46 +6862,27 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="19" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="G16" s="20" t="n">
-        <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.72028295846961</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" s="22" t="n">
-        <f aca="false">H16*F16*100</f>
-        <v>6810</v>
-      </c>
-      <c r="J16" s="23" t="n">
-        <f aca="false">I16/$E$4</f>
-        <v>0.0815412615546722</v>
-      </c>
-      <c r="K16" s="28" t="n">
-        <v>21.25</v>
-      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="24" t="n">
         <f aca="false">IFERROR((K16/F16-1)*J16,0)</f>
-        <v>-0.00520858278653192</v>
+        <v>0</v>
       </c>
       <c r="M16" s="25" t="n">
         <f aca="false">IFERROR(L16/J16,0)</f>
-        <v>-0.0638766519823788</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6929,46 +6897,27 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="19" t="n">
-        <v>53.94</v>
-      </c>
-      <c r="G17" s="20" t="n">
-        <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.40731225727216</v>
-      </c>
-      <c r="H17" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22" t="n">
-        <f aca="false">H17*F17*100</f>
-        <v>5394</v>
-      </c>
-      <c r="J17" s="23" t="n">
-        <f aca="false">I17/$E$4</f>
-        <v>0.0645864265529958</v>
-      </c>
-      <c r="K17" s="28" t="n">
-        <v>48.76</v>
-      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="24" t="n">
         <f aca="false">IFERROR((K17/F17-1)*J17,0)</f>
-        <v>-0.00620240432970928</v>
+        <v>0</v>
       </c>
       <c r="M17" s="25" t="n">
         <f aca="false">IFERROR(L17/J17,0)</f>
-        <v>-0.0960326288468669</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6983,7 +6932,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="29" t="s">
@@ -7001,11 +6950,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>134690.42315726</v>
+        <v>148547.890470642</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0372736559675153</v>
+        <v>0.143992347955135</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -8212,7 +8161,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Julho!F4</f>
-        <v>134690.42315726</v>
+        <v>148547.890470642</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -8220,13 +8169,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>139530.42315726</v>
+        <v>153387.890470642</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.395304231572601</v>
+        <v>0.533878904706416</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -8357,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -8367,7 +8316,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.06046817218791</v>
+        <v>8.88976005210303</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -8411,7 +8360,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -8421,7 +8370,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.8210049122627</v>
+        <v>4.21412455235863</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -8465,7 +8414,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -8475,7 +8424,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>12.2569646958073</v>
+        <v>13.5180082329199</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -8519,7 +8468,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -8529,7 +8478,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.7886215974588</v>
+        <v>3.07552568262198</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -8573,7 +8522,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -8583,7 +8532,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.71559788020028</v>
+        <v>4.09787284056942</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -8627,7 +8576,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -8637,7 +8586,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.41382967415524</v>
+        <v>7.07370907003055</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -8681,7 +8630,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -8691,7 +8640,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>8.76238812361357</v>
+        <v>9.66389622020903</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -8745,7 +8694,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>7.31445277037099</v>
+        <v>8.06699172454997</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -8789,7 +8738,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -8799,7 +8748,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.15344917225031</v>
+        <v>4.58077195283917</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -8843,7 +8792,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.08</v>
@@ -8853,7 +8802,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.99763326892488</v>
+        <v>2.20315744116636</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -8900,7 +8849,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>134690.42315726</v>
+        <v>148547.890470642</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -8908,11 +8857,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>139530.42315726</v>
+        <v>153387.890470642</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0359342549124593</v>
+        <v>0.0325820850411642</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -10119,7 +10068,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Agosto!F4</f>
-        <v>139530.42315726</v>
+        <v>153387.890470642</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -10127,13 +10076,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>144370.42315726</v>
+        <v>158227.890470642</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.443704231572601</v>
+        <v>0.582278904706416</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -10264,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -10274,7 +10223,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.35011509020108</v>
+        <v>9.17940697011619</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -10318,7 +10267,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -10328,7 +10277,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.9583098768017</v>
+        <v>4.35142951689763</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -10372,7 +10321,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -10382,7 +10331,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>12.6974095896394</v>
+        <v>13.958453126752</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -10426,7 +10375,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -10436,7 +10385,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.88882863679627</v>
+        <v>3.17573272195945</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -10480,7 +10429,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -10490,7 +10439,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.84911512157959</v>
+        <v>4.23139008194873</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -10534,7 +10483,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -10544,7 +10493,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.64430586463143</v>
+        <v>7.30418526050674</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -10588,7 +10537,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -10598,7 +10547,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>9.07725801208941</v>
+        <v>9.97876610868486</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -10652,7 +10601,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>7.57729218076665</v>
+        <v>8.32983113494563</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -10696,7 +10645,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -10706,7 +10655,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.3027002735719</v>
+        <v>4.73002305416075</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -10750,7 +10699,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.08</v>
@@ -10760,7 +10709,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.06941673203204</v>
+        <v>2.27494090427351</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -10807,7 +10756,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>139530.42315726</v>
+        <v>153387.890470642</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -10815,11 +10764,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>144370.42315726</v>
+        <v>158227.890470642</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0346877755437249</v>
+        <v>0.0315539902475312</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -12026,7 +11975,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Setembro!F4</f>
-        <v>144370.42315726</v>
+        <v>158227.890470642</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -12034,13 +11983,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>149210.42315726</v>
+        <v>163067.890470642</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.492104231572601</v>
+        <v>0.630678904706416</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -12171,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -12181,7 +12130,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.63976200821425</v>
+        <v>9.46905388812936</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -12225,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -12235,7 +12184,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>4.09561484134071</v>
+        <v>4.48873448143664</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -12279,7 +12228,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -12289,7 +12238,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>13.1378544834716</v>
+        <v>14.3988980205842</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -12333,7 +12282,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -12343,7 +12292,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.98903567613375</v>
+        <v>3.27593976129693</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -12387,7 +12336,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -12397,7 +12346,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.9826323629589</v>
+        <v>4.36490732332804</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -12441,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -12451,7 +12400,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.87478205510762</v>
+        <v>7.53466145098293</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -12495,7 +12444,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -12505,7 +12454,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>9.39212790056525</v>
+        <v>10.2936359971607</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -12559,7 +12508,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>7.8401315911623</v>
+        <v>8.59267054534128</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -12603,7 +12552,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -12613,7 +12562,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.45195137489348</v>
+        <v>4.87927415548234</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -12657,7 +12606,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.08</v>
@@ -12667,7 +12616,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.14120019513919</v>
+        <v>2.34672436738067</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -12714,7 +12663,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>144370.42315726</v>
+        <v>158227.890470642</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -12722,11 +12671,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>149210.42315726</v>
+        <v>163067.890470642</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0335248722983092</v>
+        <v>0.030588791809103</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -13933,7 +13882,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Outubro!F4</f>
-        <v>149210.42315726</v>
+        <v>163067.890470642</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -13941,13 +13890,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>154050.42315726</v>
+        <v>167907.890470642</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.540504231572601</v>
+        <v>0.679078904706416</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -14078,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -14088,7 +14037,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.92940892622741</v>
+        <v>9.75870080614252</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -14132,7 +14081,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -14142,7 +14091,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>4.23291980587972</v>
+        <v>4.62603944597565</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -14186,7 +14135,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -14196,7 +14145,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>15.0869993081153</v>
+        <v>16.4881587937959</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -14240,7 +14189,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -14250,7 +14199,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.43249190607914</v>
+        <v>3.75127422292711</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -14294,7 +14243,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -14304,7 +14253,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>5.14518700542276</v>
+        <v>5.62303070588419</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -14348,7 +14297,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -14358,7 +14307,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>7.89473138398201</v>
+        <v>8.62793071273236</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -14402,7 +14351,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -14412,7 +14361,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>13.8671396986301</v>
+        <v>15.1550084080522</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -14466,7 +14415,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>11.5756728593685</v>
+        <v>12.6507285081956</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -14510,7 +14459,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -14520,7 +14469,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>6.57314639459296</v>
+        <v>7.18360750971989</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -14564,7 +14513,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.1</v>
@@ -14574,7 +14523,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.76622957280794</v>
+        <v>3.02313478810978</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -14621,7 +14570,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>149210.42315726</v>
+        <v>163067.890470642</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -14629,11 +14578,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>154050.42315726</v>
+        <v>167907.890470642</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0324374121967264</v>
+        <v>0.0296808892666174</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -15840,7 +15789,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Novembro!F4</f>
-        <v>154050.42315726</v>
+        <v>167907.890470642</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -15848,13 +15797,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>159226.42315726</v>
+        <v>173083.890470642</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.592264231572601</v>
+        <v>0.730838904706416</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -15985,7 +15934,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -15995,7 +15944,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>9.21905584424058</v>
+        <v>10.0483477241557</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -16039,7 +15988,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -16049,7 +15998,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>4.37022477041873</v>
+        <v>4.76334441051465</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -16093,7 +16042,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -16103,7 +16052,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>15.5763825234843</v>
+        <v>16.977542009165</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>13</v>
@@ -16147,7 +16096,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -16157,7 +16106,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.54383306089855</v>
+        <v>3.86261537774653</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>3</v>
@@ -16201,7 +16150,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -16211,7 +16160,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>5.3120835571469</v>
+        <v>5.78992725760833</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>4</v>
@@ -16255,7 +16204,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -16265,7 +16214,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>8.15081604006667</v>
+        <v>8.88401536881702</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>7</v>
@@ -16309,7 +16258,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -16319,7 +16268,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>14.3169538250242</v>
+        <v>15.6048225344462</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>12</v>
@@ -16373,7 +16322,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>11.9511577313623</v>
+        <v>13.0262133801894</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>10</v>
@@ -16417,7 +16366,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -16427,7 +16376,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>6.78636225362379</v>
+        <v>7.39682336875073</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>5</v>
@@ -16471,7 +16420,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.1</v>
@@ -16481,7 +16430,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.85595890169188</v>
+        <v>3.11286411699373</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>3</v>
@@ -16528,7 +16477,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>154050.42315726</v>
+        <v>167907.890470642</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -16536,11 +16485,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>159226.42315726</v>
+        <v>173083.890470642</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0335993883945138</v>
+        <v>0.0308264250446588</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
